--- a/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-20/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>97640</v>
+        <v>97641</v>
       </c>
       <c r="D56" t="n">
         <v>18772</v>
       </c>
       <c r="E56" t="n">
-        <v>200339074</v>
+        <v>200343303</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186361</v>
+        <v>186362</v>
       </c>
       <c r="D100" t="n">
         <v>37749</v>
       </c>
       <c r="E100" t="n">
-        <v>306314845</v>
+        <v>306316796</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71267</v>
+        <v>71268</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110296657</v>
+        <v>110298182</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35050</v>
+        <v>35051</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160289217</v>
+        <v>160291457</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416664</v>
+        <v>416672</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>724875392</v>
+        <v>724905891</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291952</v>
+        <v>291972</v>
       </c>
       <c r="D484" t="n">
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="E484" t="n">
-        <v>1768728441</v>
+        <v>1768884931</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230557</v>
+        <v>230572</v>
       </c>
       <c r="D487" t="n">
-        <v>33847</v>
+        <v>33848</v>
       </c>
       <c r="E487" t="n">
-        <v>1816992371</v>
+        <v>1817278836</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="D489" t="n">
         <v>608</v>
       </c>
       <c r="E489" t="n">
-        <v>8190949</v>
+        <v>8198315</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184244</v>
+        <v>184252</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332692745</v>
+        <v>332715568</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71172</v>
+        <v>71173</v>
       </c>
       <c r="D511" t="n">
         <v>10923</v>
       </c>
       <c r="E511" t="n">
-        <v>286745637</v>
+        <v>286945637</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142805</v>
+        <v>142806</v>
       </c>
       <c r="D514" t="n">
         <v>23612</v>
       </c>
       <c r="E514" t="n">
-        <v>244574428</v>
+        <v>244576163</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39929</v>
+        <v>39930</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60367248</v>
+        <v>60367935</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12402</v>
+        <v>12405</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40299139</v>
+        <v>40365216</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -29776,13 +29776,13 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>15016</v>
+        <v>15017</v>
       </c>
       <c r="D576" t="n">
         <v>3117</v>
       </c>
       <c r="E576" t="n">
-        <v>67287568</v>
+        <v>67297568</v>
       </c>
       <c r="F576" t="inlineStr">
         <is>
@@ -35845,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11033</v>
+        <v>11034</v>
       </c>
       <c r="D695" t="n">
         <v>2192</v>
       </c>
       <c r="E695" t="n">
-        <v>48728368</v>
+        <v>48734023</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
